--- a/Basic/Excel Sheets.xlsx
+++ b/Basic/Excel Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\729_2324\Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19636AB-8626-4F15-BDE4-E70DA92B8A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A3F9AF-3483-4583-A5CE-37556C07330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A73932EF-36F5-43D7-A9BD-6EA24A9EC608}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{A73932EF-36F5-43D7-A9BD-6EA24A9EC608}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Attendance " sheetId="3" r:id="rId3"/>
     <sheet name="Salary" sheetId="4" r:id="rId4"/>
     <sheet name="Loan" sheetId="5" r:id="rId5"/>
+    <sheet name="Stock" sheetId="6" r:id="rId6"/>
+    <sheet name="Bill" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="87">
   <si>
     <t>Sr.</t>
   </si>
@@ -209,6 +213,96 @@
   </si>
   <si>
     <t>Interest</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Opening Stock</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Closing Stock</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Profit / Loss</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Closing Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = ( Opening quantity + purchase quantity ) - sales quanity</t>
+  </si>
+  <si>
+    <t>Closing Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = ( Opening Total + Purchase Total) / (opening quanity + purchase Quantity)</t>
+  </si>
+  <si>
+    <t>Profit Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = (Sales Total + Closing Total ) - (Purchase Total + Opening Total)</t>
+  </si>
+  <si>
+    <t>Headphone</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Company Name Logo</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party Name </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+  </si>
+  <si>
+    <t>Key board</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Pen Drive 64gb</t>
+  </si>
+  <si>
+    <t>Pen Drive 128gb</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -257,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -862,12 +956,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -914,31 +1056,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
@@ -957,11 +1084,64 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1331,7 +1511,7 @@
   <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1797,7 +1977,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:O18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2354,7 +2534,7 @@
   <dimension ref="B2:AK21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3685,7 +3865,7 @@
   <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3710,64 +3890,64 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="59" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="56"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="54" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3778,7 +3958,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="52"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="31"/>
@@ -3786,7 +3966,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="58"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
@@ -3804,10 +3984,10 @@
       <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="57">
         <v>19500</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="51">
         <f>G5*20%</f>
         <v>3900</v>
       </c>
@@ -3819,11 +3999,11 @@
         <f>G5*30%</f>
         <v>5850</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="58">
         <f>SUM(H5:J5)</f>
         <v>12675</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="56">
         <f>G5*12%</f>
         <v>2340</v>
       </c>
@@ -3833,11 +4013,11 @@
       <c r="N5" s="26">
         <v>0</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="57">
         <f>SUM(L5:N5)</f>
         <v>2540</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="59">
         <f>G5+K5-O5</f>
         <v>29635</v>
       </c>
@@ -3858,10 +4038,10 @@
       <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="57">
         <v>22000</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <f t="shared" ref="H6:H20" si="0">G6*20%</f>
         <v>4400</v>
       </c>
@@ -3873,11 +4053,11 @@
         <f t="shared" ref="J6:J20" si="2">G6*30%</f>
         <v>6600</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="58">
         <f t="shared" ref="K6:K20" si="3">SUM(H6:J6)</f>
         <v>14300</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="56">
         <f t="shared" ref="L6:L20" si="4">G6*12%</f>
         <v>2640</v>
       </c>
@@ -3887,11 +4067,11 @@
       <c r="N6" s="26">
         <v>0</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="57">
         <f t="shared" ref="O6:O20" si="5">SUM(L6:N6)</f>
         <v>2640</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="59">
         <f t="shared" ref="P6:P20" si="6">G6+K6-O6</f>
         <v>33660</v>
       </c>
@@ -3902,8 +4082,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="53">
+      <c r="G7" s="57"/>
+      <c r="H7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3915,11 +4095,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="61">
+      <c r="K7" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3929,11 +4109,11 @@
       <c r="N7" s="26">
         <v>0</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3944,8 +4124,8 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="53">
+      <c r="G8" s="57"/>
+      <c r="H8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3957,11 +4137,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="61">
+      <c r="K8" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3971,11 +4151,11 @@
       <c r="N8" s="26">
         <v>0</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3986,8 +4166,8 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="53">
+      <c r="G9" s="57"/>
+      <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3999,11 +4179,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="61">
+      <c r="K9" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4013,11 +4193,11 @@
       <c r="N9" s="26">
         <v>0</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P9" s="64">
+      <c r="P9" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4028,8 +4208,8 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="53">
+      <c r="G10" s="57"/>
+      <c r="H10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4041,11 +4221,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="61">
+      <c r="K10" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4055,11 +4235,11 @@
       <c r="N10" s="26">
         <v>0</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4070,8 +4250,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="53">
+      <c r="G11" s="57"/>
+      <c r="H11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4083,11 +4263,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="61">
+      <c r="K11" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4097,11 +4277,11 @@
       <c r="N11" s="26">
         <v>0</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4112,8 +4292,8 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="53">
+      <c r="G12" s="57"/>
+      <c r="H12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4125,11 +4305,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="61">
+      <c r="K12" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4139,11 +4319,11 @@
       <c r="N12" s="26">
         <v>0</v>
       </c>
-      <c r="O12" s="62">
+      <c r="O12" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4154,8 +4334,8 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="53">
+      <c r="G13" s="57"/>
+      <c r="H13" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4167,11 +4347,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="61">
+      <c r="K13" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4181,11 +4361,11 @@
       <c r="N13" s="26">
         <v>0</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4196,8 +4376,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="53">
+      <c r="G14" s="57"/>
+      <c r="H14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4209,11 +4389,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="61">
+      <c r="K14" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4223,11 +4403,11 @@
       <c r="N14" s="26">
         <v>0</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4238,8 +4418,8 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="53">
+      <c r="G15" s="57"/>
+      <c r="H15" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4251,11 +4431,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="61">
+      <c r="K15" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4265,11 +4445,11 @@
       <c r="N15" s="26">
         <v>0</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4280,8 +4460,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="53">
+      <c r="G16" s="57"/>
+      <c r="H16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4293,11 +4473,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="61">
+      <c r="K16" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4307,11 +4487,11 @@
       <c r="N16" s="26">
         <v>0</v>
       </c>
-      <c r="O16" s="62">
+      <c r="O16" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4322,8 +4502,8 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="53">
+      <c r="G17" s="57"/>
+      <c r="H17" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4335,11 +4515,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="61">
+      <c r="K17" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4349,11 +4529,11 @@
       <c r="N17" s="26">
         <v>0</v>
       </c>
-      <c r="O17" s="62">
+      <c r="O17" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P17" s="64">
+      <c r="P17" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4364,8 +4544,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="53">
+      <c r="G18" s="57"/>
+      <c r="H18" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4377,11 +4557,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="61">
+      <c r="K18" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4391,11 +4571,11 @@
       <c r="N18" s="26">
         <v>0</v>
       </c>
-      <c r="O18" s="62">
+      <c r="O18" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P18" s="64">
+      <c r="P18" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4406,8 +4586,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="53">
+      <c r="G19" s="57"/>
+      <c r="H19" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4419,11 +4599,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="61">
+      <c r="K19" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4433,11 +4613,11 @@
       <c r="N19" s="26">
         <v>0</v>
       </c>
-      <c r="O19" s="62">
+      <c r="O19" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P19" s="64">
+      <c r="P19" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4448,8 +4628,8 @@
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4461,11 +4641,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="68">
+      <c r="K20" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4475,11 +4655,11 @@
       <c r="N20" s="27">
         <v>0</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4492,43 +4672,43 @@
       <c r="F21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="71">
         <f>SUM(G5:G20)</f>
         <v>41500</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="72">
         <f t="shared" ref="H21:P21" si="7">SUM(H5:H20)</f>
         <v>8300</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="72">
         <f t="shared" si="7"/>
         <v>6225</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="72">
         <f t="shared" si="7"/>
         <v>12450</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="72">
         <f t="shared" si="7"/>
         <v>26975</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="72">
         <f t="shared" si="7"/>
         <v>4980</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="72">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="72">
         <f t="shared" si="7"/>
         <v>5180</v>
       </c>
-      <c r="P21" s="78">
+      <c r="P21" s="73">
         <f t="shared" si="7"/>
         <v>63295</v>
       </c>
@@ -4549,34 +4729,34 @@
       <c r="F22" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="73" t="s">
+      <c r="K22" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="72" t="s">
+      <c r="N22" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="70" t="s">
+      <c r="O22" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="75" t="s">
+      <c r="P22" s="70" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4593,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7BEC10-4501-4DC8-A41C-03659608BEF9}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4608,113 +4788,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="62">
+      <c r="D5" s="57">
         <v>35000</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="62">
+      <c r="D6" s="57">
         <v>5000</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="83">
+      <c r="F6" s="12"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="114"/>
+      <c r="J6" s="82">
         <f>D7</f>
         <v>30000</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="62">
+      <c r="D7" s="57">
         <f>D5-D6</f>
         <v>30000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="37">
         <v>1</v>
       </c>
       <c r="G7" s="26">
         <v>2750.4</v>
       </c>
-      <c r="H7" s="26">
-        <f>J6*1.5%</f>
+      <c r="H7" s="83">
+        <f t="shared" ref="H7:H18" si="0">J6*1.5%</f>
         <v>450</v>
       </c>
-      <c r="I7" s="26">
-        <f>G7-H7</f>
+      <c r="I7" s="83">
+        <f t="shared" ref="I7:I18" si="1">G7-H7</f>
         <v>2300.4</v>
       </c>
       <c r="J7" s="28">
-        <f>J6-I7</f>
+        <f t="shared" ref="J7:J18" si="2">J6-I7</f>
         <v>27699.599999999999</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6">
         <v>18</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="37">
         <v>2</v>
       </c>
       <c r="G8" s="26">
         <v>2750.4</v>
       </c>
       <c r="H8" s="26">
-        <f>J7*1.5%</f>
+        <f t="shared" si="0"/>
         <v>415.49399999999997</v>
       </c>
       <c r="I8" s="26">
-        <f>G8-H8</f>
+        <f t="shared" si="1"/>
         <v>2334.9059999999999</v>
       </c>
       <c r="J8" s="28">
-        <f>J7-I8</f>
+        <f t="shared" si="2"/>
         <v>25364.694</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="1"/>
@@ -4722,54 +4909,54 @@
         <f>D8/12</f>
         <v>1.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="37">
         <v>3</v>
       </c>
       <c r="G9" s="26">
         <v>2750.4</v>
       </c>
       <c r="H9" s="26">
-        <f>J8*1.5%</f>
+        <f t="shared" si="0"/>
         <v>380.47040999999996</v>
       </c>
       <c r="I9" s="26">
-        <f>G9-H9</f>
+        <f t="shared" si="1"/>
         <v>2369.9295900000002</v>
       </c>
       <c r="J9" s="28">
-        <f>J8-I9</f>
+        <f t="shared" si="2"/>
         <v>22994.76441</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="37">
         <v>4</v>
       </c>
       <c r="G10" s="26">
         <v>2750.4</v>
       </c>
       <c r="H10" s="26">
-        <f>J9*1.5%</f>
+        <f t="shared" si="0"/>
         <v>344.92146614999996</v>
       </c>
       <c r="I10" s="26">
-        <f>G10-H10</f>
+        <f t="shared" si="1"/>
         <v>2405.4785338500001</v>
       </c>
       <c r="J10" s="28">
-        <f>J9-I10</f>
+        <f t="shared" si="2"/>
         <v>20589.285876149999</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="1"/>
@@ -4777,190 +4964,1644 @@
         <f>D10*12</f>
         <v>12</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="37">
         <v>5</v>
       </c>
       <c r="G11" s="26">
         <v>2750.4</v>
       </c>
       <c r="H11" s="26">
-        <f>J10*1.5%</f>
+        <f t="shared" si="0"/>
         <v>308.83928814224998</v>
       </c>
       <c r="I11" s="26">
-        <f>G11-H11</f>
+        <f t="shared" si="1"/>
         <v>2441.56071185775</v>
       </c>
       <c r="J11" s="28">
-        <f>J10-I11</f>
+        <f t="shared" si="2"/>
         <v>18147.725164292249</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="40" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="79">
-        <f>PMT(D9%,D11,D7)</f>
-        <v>-2750.3997871868683</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="76">
+        <f>-PMT(D9%,D11,D7)</f>
+        <v>2750.3997871868683</v>
+      </c>
+      <c r="F12" s="37">
         <v>6</v>
       </c>
       <c r="G12" s="26">
         <v>2750.4</v>
       </c>
       <c r="H12" s="26">
-        <f>J11*1.5%</f>
+        <f t="shared" si="0"/>
         <v>272.21587746438371</v>
       </c>
       <c r="I12" s="26">
-        <f>G12-H12</f>
+        <f t="shared" si="1"/>
         <v>2478.1841225356166</v>
       </c>
       <c r="J12" s="28">
-        <f>J11-I12</f>
+        <f t="shared" si="2"/>
         <v>15669.541041756633</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F13" s="5">
+      <c r="F13" s="37">
         <v>7</v>
       </c>
       <c r="G13" s="26">
         <v>2750.4</v>
       </c>
       <c r="H13" s="26">
-        <f>J12*1.5%</f>
+        <f t="shared" si="0"/>
         <v>235.04311562634948</v>
       </c>
       <c r="I13" s="26">
-        <f>G13-H13</f>
+        <f t="shared" si="1"/>
         <v>2515.3568843736507</v>
       </c>
       <c r="J13" s="28">
-        <f>J12-I13</f>
+        <f t="shared" si="2"/>
         <v>13154.184157382982</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F14" s="5">
+      <c r="F14" s="37">
         <v>8</v>
       </c>
       <c r="G14" s="26">
         <v>2750.4</v>
       </c>
       <c r="H14" s="26">
-        <f>J13*1.5%</f>
+        <f t="shared" si="0"/>
         <v>197.31276236074473</v>
       </c>
       <c r="I14" s="26">
-        <f>G14-H14</f>
+        <f t="shared" si="1"/>
         <v>2553.0872376392554</v>
       </c>
       <c r="J14" s="28">
-        <f>J13-I14</f>
+        <f t="shared" si="2"/>
         <v>10601.096919743726</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F15" s="5">
+      <c r="F15" s="37">
         <v>9</v>
       </c>
       <c r="G15" s="26">
         <v>2750.4</v>
       </c>
       <c r="H15" s="26">
-        <f>J14*1.5%</f>
+        <f t="shared" si="0"/>
         <v>159.0164537961559</v>
       </c>
       <c r="I15" s="26">
-        <f>G15-H15</f>
+        <f t="shared" si="1"/>
         <v>2591.3835462038442</v>
       </c>
       <c r="J15" s="28">
-        <f>J14-I15</f>
+        <f t="shared" si="2"/>
         <v>8009.713373539882</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F16" s="5">
+      <c r="F16" s="37">
         <v>10</v>
       </c>
       <c r="G16" s="26">
         <v>2750.4</v>
       </c>
       <c r="H16" s="26">
-        <f>J15*1.5%</f>
+        <f t="shared" si="0"/>
         <v>120.14570060309822</v>
       </c>
       <c r="I16" s="26">
-        <f>G16-H16</f>
+        <f t="shared" si="1"/>
         <v>2630.2542993969018</v>
       </c>
       <c r="J16" s="28">
-        <f>J15-I16</f>
+        <f t="shared" si="2"/>
         <v>5379.4590741429802</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F17" s="5">
+      <c r="F17" s="37">
         <v>11</v>
       </c>
       <c r="G17" s="26">
         <v>2750.4</v>
       </c>
       <c r="H17" s="26">
-        <f>J16*1.5%</f>
+        <f t="shared" si="0"/>
         <v>80.691886112144701</v>
       </c>
       <c r="I17" s="26">
-        <f>G17-H17</f>
+        <f t="shared" si="1"/>
         <v>2669.7081138878552</v>
       </c>
       <c r="J17" s="28">
-        <f>J16-I17</f>
+        <f t="shared" si="2"/>
         <v>2709.7509602551249</v>
       </c>
     </row>
     <row r="18" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F18" s="5">
+      <c r="F18" s="46">
         <v>12</v>
       </c>
       <c r="G18" s="26">
         <v>2750.4</v>
       </c>
       <c r="H18" s="26">
-        <f>J17*1.5%</f>
+        <f t="shared" si="0"/>
         <v>40.646264403826869</v>
       </c>
       <c r="I18" s="26">
-        <f>G18-H18</f>
+        <f t="shared" si="1"/>
         <v>2709.7537355961731</v>
       </c>
       <c r="J18" s="28">
-        <f>J17-I18</f>
+        <f t="shared" si="2"/>
         <v>-2.775341048163682E-3</v>
       </c>
     </row>
     <row r="19" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F19" t="s">
+      <c r="F19" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="81">
+      <c r="G19" s="74">
         <f>SUM(G7:G18)</f>
         <v>33004.80000000001</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="74">
         <f>SUM(H7:H18)</f>
         <v>3004.7972246589534</v>
       </c>
-      <c r="I19" s="81">
+      <c r="I19" s="74">
         <f>SUM(I7:I18)</f>
         <v>30000.00277534105</v>
       </c>
-      <c r="J19" s="82"/>
+      <c r="J19" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E45866F-40DB-410D-81C8-AEDDF2918E07}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="88"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="89"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20</v>
+      </c>
+      <c r="D4" s="26">
+        <v>540</v>
+      </c>
+      <c r="E4" s="57">
+        <f>C4*D4</f>
+        <v>10800</v>
+      </c>
+      <c r="F4" s="86">
+        <v>50</v>
+      </c>
+      <c r="G4" s="26">
+        <v>510</v>
+      </c>
+      <c r="H4" s="58">
+        <f>F4*G4</f>
+        <v>25500</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45</v>
+      </c>
+      <c r="J4" s="26">
+        <v>660</v>
+      </c>
+      <c r="K4" s="57">
+        <f>I4*J4</f>
+        <v>29700</v>
+      </c>
+      <c r="L4" s="86">
+        <f>(C4+F4)-I4</f>
+        <v>25</v>
+      </c>
+      <c r="M4" s="26">
+        <f>(E4+H4)/(C4+F4)</f>
+        <v>518.57142857142856</v>
+      </c>
+      <c r="N4" s="58">
+        <f>L4*M4</f>
+        <v>12964.285714285714</v>
+      </c>
+      <c r="O4" s="94">
+        <f>(K4+N4)-(E4+H4)</f>
+        <v>6364.2857142857101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1250</v>
+      </c>
+      <c r="E5" s="57">
+        <f t="shared" ref="E5:E20" si="0">C5*D5</f>
+        <v>6250</v>
+      </c>
+      <c r="F5" s="86">
+        <v>10</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1200</v>
+      </c>
+      <c r="H5" s="58">
+        <f t="shared" ref="H5:H20" si="1">F5*G5</f>
+        <v>12000</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1750</v>
+      </c>
+      <c r="K5" s="57">
+        <f t="shared" ref="K5:K20" si="2">I5*J5</f>
+        <v>14000</v>
+      </c>
+      <c r="L5" s="86">
+        <f t="shared" ref="L5:L20" si="3">(C5+F5)-I5</f>
+        <v>7</v>
+      </c>
+      <c r="M5" s="26">
+        <f t="shared" ref="M5:M20" si="4">(E5+H5)/(C5+F5)</f>
+        <v>1216.6666666666667</v>
+      </c>
+      <c r="N5" s="58">
+        <f t="shared" ref="N5:N20" si="5">L5*M5</f>
+        <v>8516.6666666666679</v>
+      </c>
+      <c r="O5" s="94">
+        <f t="shared" ref="O5:O20" si="6">(K5+N5)-(E5+H5)</f>
+        <v>4266.6666666666679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="86"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="86"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="86"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="86"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="94" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="95"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82918F8-319F-4FAD-9947-D2C9C1D7E8D1}">
+  <dimension ref="B1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="53.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="114"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="96">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="78">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1230</v>
+      </c>
+      <c r="F8" s="28">
+        <f>D8*E8</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="26">
+        <v>340</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" ref="F9:F17" si="0">D9*E9</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26">
+        <v>650</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>880</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="99"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="101">
+        <f>SUM(F8:F18)</f>
+        <v>16830</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="97">
+        <v>0.18</v>
+      </c>
+      <c r="F20" s="57">
+        <f>F19*E20</f>
+        <v>3029.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="92">
+        <f>SUM(F19:F20)</f>
+        <v>19859.400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A8B4BF-B8CE-4031-BE3C-2B8FFD0B591B}">
+  <dimension ref="B1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="53.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="114"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="96">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="78">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1230</v>
+      </c>
+      <c r="F8" s="106">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="91">
+        <f>(E8*F8)*D8</f>
+        <v>615</v>
+      </c>
+      <c r="H8" s="28">
+        <f>(D8*E8)+G8</f>
+        <v>12915</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="26">
+        <v>340</v>
+      </c>
+      <c r="F9" s="106">
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="91">
+        <f>(E9*F9)*D9</f>
+        <v>408</v>
+      </c>
+      <c r="H9" s="28">
+        <f>(D9*E9)+G9</f>
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26">
+        <v>650</v>
+      </c>
+      <c r="F10" s="106">
+        <v>0.18</v>
+      </c>
+      <c r="G10" s="91">
+        <f>(E10*F10)*D10</f>
+        <v>351</v>
+      </c>
+      <c r="H10" s="28">
+        <f>(D10*E10)+G10</f>
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>880</v>
+      </c>
+      <c r="F11" s="106">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G11" s="91">
+        <f>(E11*F11)*D11</f>
+        <v>246.40000000000003</v>
+      </c>
+      <c r="H11" s="28">
+        <f>(D11*E11)+G11</f>
+        <v>1126.4000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="28">
+        <f t="shared" ref="H12:H17" si="0">D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="99"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="101">
+        <f>SUM(H8:H18)</f>
+        <v>20150.400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="57"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BCC08D-ECC5-45F3-93C3-F4298A041B48}">
+  <dimension ref="E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
